--- a/source/2025.09.22 LH 25년3차_신혼·신생아매입임대Ⅱ(전세형)_서울.xlsx
+++ b/source/2025.09.22 LH 25년3차_신혼·신생아매입임대Ⅱ(전세형)_서울.xlsx
@@ -1308,9 +1308,9 @@
   </sheetPr>
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1"/>
